--- a/Users/core users.xlsx
+++ b/Users/core users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wqc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wqc/Desktop/Stackoverflow-data-analysis/Users/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,10 +232,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8360.0</c:v>
+                  <c:v>4818.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57263.0</c:v>
+                  <c:v>60805.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,10 +501,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1871.0</c:v>
+                  <c:v>1845.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6389.0</c:v>
+                  <c:v>1402.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2241,25 +2241,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>8360</v>
+        <v>4818</v>
       </c>
       <c r="B1">
-        <v>1871</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>57263</v>
+        <v>60805</v>
       </c>
       <c r="B2">
-        <v>6389</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
